--- a/src/conf/CodeGenerator.xlsx
+++ b/src/conf/CodeGenerator.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\OpenSources\13_CodeGenerator\branches\branches_main_0.x\src\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\my\code-generator\src\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="6375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="6375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#修订履历" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>修订履历</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>generatorName</t>
-  </si>
-  <si>
-    <t>Code Generator</t>
   </si>
   <si>
     <t>版权说明</t>
@@ -285,10 +282,6 @@
   </si>
   <si>
     <t>generatorWebsite</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://yanglb.com/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -359,16 +352,6 @@
   </si>
   <si>
     <t>ddl_mysql =&gt; ddl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">-- {generatorCopyright}
--- auto generated by {generatorName} {generatorVersion}
--- {generationDate}
--- {generatorWebsite}
---
--- version: {version}
-</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -423,10 +406,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Copyright 2015-2016 yanglb.com All Rights Reserved.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1.1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -465,7 +444,86 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.1</t>
+    <t>2.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>DDL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>MySql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）索引、约束功能</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://yanglb.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Generator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copyright 2015-2017 yanglb.com All Rights Reserved.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-- {generatorCopyright}
+-- auto generated by {generatorName} {generatorVersion}
+-- {generationDate}
+-- {generatorWebsite}
+--
+-- input file version: {version}
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +534,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -557,14 +615,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -729,16 +779,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2098,7 +2148,7 @@
   </sheetPr>
   <dimension ref="A1:IV22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
@@ -2148,7 +2198,7 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>0.1</v>
       </c>
       <c r="C3" s="6">
@@ -2169,7 +2219,7 @@
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>0.2</v>
       </c>
       <c r="C4" s="10">
@@ -2182,7 +2232,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2190,7 +2240,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>0.3</v>
       </c>
       <c r="C5" s="10">
@@ -2203,7 +2253,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2211,7 +2261,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>0.4</v>
       </c>
       <c r="C6" s="10">
@@ -2224,7 +2274,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2232,8 +2282,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>78</v>
+      <c r="B7" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="C7" s="10">
         <v>41013</v>
@@ -2245,7 +2295,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2253,8 +2303,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>81</v>
+      <c r="B8" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="C8" s="10">
         <v>41016</v>
@@ -2266,7 +2316,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2274,18 +2324,28 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="10">
+        <v>41391</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2296,7 +2356,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2307,7 +2367,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2318,7 +2378,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2329,7 +2389,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2340,7 +2400,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2351,7 +2411,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2362,7 +2422,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2373,7 +2433,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2384,7 +2444,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2395,7 +2455,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2406,7 +2466,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2417,7 +2477,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2490,7 +2550,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -2498,30 +2558,30 @@
     </row>
     <row r="5" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2529,27 +2589,27 @@
         <v>4</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2605,10 +2665,10 @@
   </sheetPr>
   <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2625,7 +2685,7 @@
     <row r="1" spans="2:5" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B2" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -2647,39 +2707,39 @@
     </row>
     <row r="4" spans="2:5" ht="128.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -2764,7 +2824,7 @@
     <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:5" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B2" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -2786,10 +2846,10 @@
     </row>
     <row r="4" spans="2:5" ht="128.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="17" t="str">
         <f>ddl!D4</f>
@@ -2798,11 +2858,11 @@
 -- {generationDate}
 -- {generatorWebsite}
 --
--- version: {version}
+-- input file version: {version}
 </v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -2882,7 +2942,7 @@
     <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2899,7 +2959,7 @@
     <row r="1" spans="1:256" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:256" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B2" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -2921,57 +2981,57 @@
     </row>
     <row r="4" spans="1:256" ht="153" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:256" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:256" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="29"/>
       <c r="C7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="9" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3229,10 +3289,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="29"/>
       <c r="C8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
@@ -3491,7 +3551,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="29"/>
       <c r="C9" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="9" t="b">
         <v>1</v>
@@ -3753,10 +3813,10 @@
       <c r="A10" s="1"/>
       <c r="B10" s="29"/>
       <c r="C10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="1"/>
@@ -4015,7 +4075,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="29"/>
       <c r="C11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="9" t="b">
         <v>1</v>
@@ -4277,10 +4337,10 @@
       <c r="A12" s="1"/>
       <c r="B12" s="29"/>
       <c r="C12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="1"/>
@@ -4539,7 +4599,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="29"/>
       <c r="C13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="9" t="b">
         <v>0</v>
@@ -4801,10 +4861,10 @@
       <c r="A14" s="1"/>
       <c r="B14" s="29"/>
       <c r="C14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="1"/>
@@ -5063,7 +5123,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="29"/>
       <c r="C15" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="9" t="b">
         <v>0</v>
@@ -5325,10 +5385,10 @@
       <c r="A16" s="1"/>
       <c r="B16" s="29"/>
       <c r="C16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="1"/>
@@ -5587,7 +5647,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="29"/>
       <c r="C17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="9" t="b">
         <v>0</v>
@@ -5849,10 +5909,10 @@
       <c r="A18" s="1"/>
       <c r="B18" s="29"/>
       <c r="C18" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="1"/>
@@ -6111,7 +6171,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="29"/>
       <c r="C19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="9" t="b">
         <v>0</v>
@@ -6373,10 +6433,10 @@
       <c r="A20" s="1"/>
       <c r="B20" s="29"/>
       <c r="C20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="1"/>
@@ -6635,7 +6695,7 @@
       <c r="A21" s="1"/>
       <c r="B21" s="29"/>
       <c r="C21" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="9" t="b">
         <v>0</v>
@@ -6897,10 +6957,10 @@
       <c r="A22" s="1"/>
       <c r="B22" s="29"/>
       <c r="C22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="1"/>
@@ -7159,7 +7219,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="30"/>
       <c r="C23" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="9" t="b">
         <v>0</v>

--- a/src/conf/CodeGenerator.xlsx
+++ b/src/conf/CodeGenerator.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\my\code-generator\src\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/src/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7920F41-EB25-0449-B861-087BDBDC3860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="6375" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#修订履历" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,15 @@
     <sheet name="dml" sheetId="4" r:id="rId4"/>
     <sheet name="csharp" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,10 +122,6 @@
   </si>
   <si>
     <t>修正部分bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>yanglb.cn@gmail.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -497,19 +502,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>https://yanglb.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Code Generator</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copyright 2015-2017 yanglb.com All Rights Reserved.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -526,15 +523,27 @@
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>2.2.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>me@yanglb.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copyright 2015-2019 yanglb.com All Rights Reserved.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -623,6 +632,13 @@
       <name val="Helvetica"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -721,7 +737,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -785,9 +801,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -814,6 +827,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2142,7 +2161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2153,27 +2172,27 @@
       <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.09765625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="1" customWidth="1"/>
-    <col min="7" max="256" width="9.09765625" style="1" customWidth="1"/>
+    <col min="7" max="256" width="9.125" style="1" customWidth="1"/>
     <col min="257" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" ht="23">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2193,7 +2212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="20.75" customHeight="1">
       <c r="A3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
@@ -2214,7 +2233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="20.5" customHeight="1">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
@@ -2235,7 +2254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="20.5" customHeight="1">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2253,10 +2272,10 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.5" customHeight="1">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2274,16 +2293,16 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.5" customHeight="1">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="10">
         <v>41013</v>
@@ -2295,16 +2314,16 @@
         <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.5" customHeight="1">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="10">
         <v>41016</v>
@@ -2316,16 +2335,16 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.5" customHeight="1">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="10">
         <v>41391</v>
@@ -2337,10 +2356,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.5" customHeight="1">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2351,7 +2370,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="20.5" customHeight="1">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2362,7 +2381,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="20.5" customHeight="1">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2373,7 +2392,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="20.5" customHeight="1">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2384,7 +2403,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="20.5" customHeight="1">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2395,7 +2414,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="20.5" customHeight="1">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2406,7 +2425,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="20.5" customHeight="1">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2417,7 +2436,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="20.5" customHeight="1">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2428,7 +2447,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="20.5" customHeight="1">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2439,7 +2458,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="20.5" customHeight="1">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2450,7 +2469,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="20.5" customHeight="1">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2461,7 +2480,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="20.5" customHeight="1">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2472,7 +2491,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="20.5" customHeight="1">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2497,7 +2516,170 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IV13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
+    <col min="6" max="256" width="12.25" style="1" customWidth="1"/>
+    <col min="257" max="16384" width="12.25" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="17.25" hidden="1" customHeight="1"/>
+    <row r="2" spans="2:5" ht="23">
+      <c r="B2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="2:5" ht="18.25" customHeight="1">
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="20.75" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B9" s="8"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B10" s="8"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B11" s="8"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B12" s="8"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B13" s="8"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{72970293-DB09-B044-A482-20E018EA8D28}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2509,26 +2691,27 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="3" width="12.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.69921875" style="1" customWidth="1"/>
-    <col min="6" max="256" width="12.19921875" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="12.19921875" style="2"/>
+    <col min="1" max="1" width="3.25" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
+    <col min="6" max="256" width="12.25" style="1" customWidth="1"/>
+    <col min="257" max="16384" width="12.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="2:5" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" ht="31.5" hidden="1" customHeight="1"/>
+    <row r="2" spans="2:5" ht="23">
+      <c r="B2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="2:5" ht="18.25" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
@@ -2542,244 +2725,81 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IV13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.19921875" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.69921875" style="1" customWidth="1"/>
-    <col min="6" max="256" width="12.19921875" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="12.19921875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="2:5" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="128.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="128.75" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="20.5" customHeight="1">
       <c r="B5" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="20.5" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="20.5" customHeight="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="20.5" customHeight="1">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="20.5" customHeight="1">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="20.5" customHeight="1">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="20.5" customHeight="1">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" ht="20.5" customHeight="1">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" ht="20.5" customHeight="1">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2799,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2811,26 +2831,26 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="3" width="12.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.69921875" style="1" customWidth="1"/>
-    <col min="6" max="256" width="12.19921875" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="12.19921875" style="2"/>
+    <col min="1" max="1" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
+    <col min="6" max="256" width="12.25" style="1" customWidth="1"/>
+    <col min="257" max="16384" width="12.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:5" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
+    <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
+    <row r="2" spans="2:5" ht="23">
+      <c r="B2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="2:5" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="2:5" ht="18.25" customHeight="1">
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
@@ -2844,7 +2864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="128.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="128.75" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
@@ -2865,55 +2885,55 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="20.5" customHeight="1">
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" ht="20.5" customHeight="1">
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" ht="20.5" customHeight="1">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="20.5" customHeight="1">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="20.5" customHeight="1">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="20.5" customHeight="1">
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="20.5" customHeight="1">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" ht="20.5" customHeight="1">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="2:5" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" ht="20.5" customHeight="1">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2933,7 +2953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2945,27 +2965,27 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.69921875" style="1" customWidth="1"/>
-    <col min="6" max="256" width="12.19921875" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="12.19921875" style="12"/>
+    <col min="1" max="1" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
+    <col min="6" max="256" width="12.25" style="1" customWidth="1"/>
+    <col min="257" max="16384" width="12.25" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:256" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:256" ht="18.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" ht="40.5" hidden="1" customHeight="1"/>
+    <row r="2" spans="1:256" ht="23">
+      <c r="B2" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:256" ht="18.25" customHeight="1">
       <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
@@ -2979,7 +2999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="153" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:256" ht="168">
       <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
@@ -2987,51 +3007,51 @@
         <v>24</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:256" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:256" ht="20.5" customHeight="1">
       <c r="B5" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="15" t="s">
+    </row>
+    <row r="6" spans="1:256" ht="20.5" customHeight="1">
+      <c r="B6" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:256" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="9" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3285,14 +3305,14 @@
       <c r="IU7" s="1"/>
       <c r="IV7" s="1"/>
     </row>
-    <row r="8" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="29"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
@@ -3547,11 +3567,11 @@
       <c r="IU8" s="1"/>
       <c r="IV8" s="1"/>
     </row>
-    <row r="9" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="29"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="9" t="b">
         <v>1</v>
@@ -3809,14 +3829,14 @@
       <c r="IU9" s="1"/>
       <c r="IV9" s="1"/>
     </row>
-    <row r="10" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="1"/>
@@ -4071,11 +4091,11 @@
       <c r="IU10" s="1"/>
       <c r="IV10" s="1"/>
     </row>
-    <row r="11" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="29"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="9" t="b">
         <v>1</v>
@@ -4333,14 +4353,14 @@
       <c r="IU11" s="1"/>
       <c r="IV11" s="1"/>
     </row>
-    <row r="12" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="29"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="1"/>
@@ -4595,11 +4615,11 @@
       <c r="IU12" s="1"/>
       <c r="IV12" s="1"/>
     </row>
-    <row r="13" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="9" t="b">
         <v>0</v>
@@ -4857,14 +4877,14 @@
       <c r="IU13" s="1"/>
       <c r="IV13" s="1"/>
     </row>
-    <row r="14" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="1"/>
@@ -5119,11 +5139,11 @@
       <c r="IU14" s="1"/>
       <c r="IV14" s="1"/>
     </row>
-    <row r="15" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="9" t="b">
         <v>0</v>
@@ -5381,14 +5401,14 @@
       <c r="IU15" s="1"/>
       <c r="IV15" s="1"/>
     </row>
-    <row r="16" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="1"/>
@@ -5643,11 +5663,11 @@
       <c r="IU16" s="1"/>
       <c r="IV16" s="1"/>
     </row>
-    <row r="17" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="29"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="9" t="b">
         <v>0</v>
@@ -5905,14 +5925,14 @@
       <c r="IU17" s="1"/>
       <c r="IV17" s="1"/>
     </row>
-    <row r="18" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="29"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="1"/>
@@ -6167,11 +6187,11 @@
       <c r="IU18" s="1"/>
       <c r="IV18" s="1"/>
     </row>
-    <row r="19" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="29"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="9" t="b">
         <v>0</v>
@@ -6429,14 +6449,14 @@
       <c r="IU19" s="1"/>
       <c r="IV19" s="1"/>
     </row>
-    <row r="20" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="29"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="1"/>
@@ -6691,11 +6711,11 @@
       <c r="IU20" s="1"/>
       <c r="IV20" s="1"/>
     </row>
-    <row r="21" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="29"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="9" t="b">
         <v>0</v>
@@ -6953,14 +6973,14 @@
       <c r="IU21" s="1"/>
       <c r="IV21" s="1"/>
     </row>
-    <row r="22" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="29"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="1"/>
@@ -7215,11 +7235,11 @@
       <c r="IU22" s="1"/>
       <c r="IV22" s="1"/>
     </row>
-    <row r="23" spans="1:256" s="14" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="30"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="9" t="b">
         <v>0</v>

--- a/src/conf/CodeGenerator.xlsx
+++ b/src/conf/CodeGenerator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/src/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7920F41-EB25-0449-B861-087BDBDC3860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA2E672-E066-4E4E-A595-426AD00559CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,15 +524,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2.2.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>me@yanglb.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Copyright 2015-2019 yanglb.com All Rights Reserved.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -804,6 +804,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,12 +833,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2183,14 +2183,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="20.75" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -2540,12 +2540,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="18.25" customHeight="1">
       <c r="B3" s="7" t="s">
@@ -2582,8 +2582,8 @@
       <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>86</v>
+      <c r="D5" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>17</v>
@@ -2596,8 +2596,8 @@
       <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>84</v>
+      <c r="D6" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>20</v>
@@ -2611,7 +2611,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>22</v>
@@ -2704,12 +2704,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="31.5" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="18.25" customHeight="1">
       <c r="B3" s="7" t="s">
@@ -2843,12 +2843,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" ht="18.25" customHeight="1">
       <c r="B3" s="7" t="s">
@@ -2978,12 +2978,12 @@
   <sheetData>
     <row r="1" spans="1:256" ht="40.5" hidden="1" customHeight="1"/>
     <row r="2" spans="1:256" ht="23">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:256" ht="18.25" customHeight="1">
       <c r="B3" s="13" t="s">
@@ -3028,7 +3028,7 @@
       </c>
     </row>
     <row r="6" spans="1:256" ht="20.5" customHeight="1">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3043,7 +3043,7 @@
     </row>
     <row r="7" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="28"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="8" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="9" t="s">
         <v>39</v>
       </c>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="9" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="28"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="9" t="s">
         <v>52</v>
       </c>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="10" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="28"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="9" t="s">
         <v>41</v>
       </c>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="11" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="28"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="9" t="s">
         <v>53</v>
       </c>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="12" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="28"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="9" t="s">
         <v>42</v>
       </c>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="13" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="28"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="9" t="s">
         <v>54</v>
       </c>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="14" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="28"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="9" t="s">
         <v>44</v>
       </c>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="15" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="28"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="9" t="s">
         <v>55</v>
       </c>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="16" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="28"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="9" t="s">
         <v>36</v>
       </c>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="17" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="28"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="9" t="s">
         <v>35</v>
       </c>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="18" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="28"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="9" t="s">
         <v>47</v>
       </c>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="19" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="28"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="9" t="s">
         <v>56</v>
       </c>
@@ -6451,7 +6451,7 @@
     </row>
     <row r="20" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="28"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="9" t="s">
         <v>48</v>
       </c>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="21" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="28"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="9" t="s">
         <v>57</v>
       </c>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="22" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="28"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="9" t="s">
         <v>50</v>
       </c>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="23" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="9" t="s">
         <v>58</v>
       </c>

--- a/src/conf/CodeGenerator.xlsx
+++ b/src/conf/CodeGenerator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/src/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA2E672-E066-4E4E-A595-426AD00559CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6BCB93-6BB5-B548-956D-282AC1585D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#修订履历" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,16 @@
     <sheet name="ddl" sheetId="3" r:id="rId3"/>
     <sheet name="dml" sheetId="4" r:id="rId4"/>
     <sheet name="csharp" sheetId="5" r:id="rId5"/>
+    <sheet name="msg_cs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
   <si>
     <t>修订履历</t>
   </si>
@@ -259,6 +262,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>csharp Sheet</t>
     </r>
@@ -360,19 +364,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">// {generatorCopyright}
-// auto generated by {generatorName} {generatorVersion}
-// {generationDate}
-// {generatorWebsite}
-using System;
-using System.Collections.Generic;
-using System.Linq;
-using System.Text;
-using System.Threading.Tasks;
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1.0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -395,6 +386,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Group</t>
     </r>
@@ -433,6 +425,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -468,6 +461,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>DDL</t>
     </r>
@@ -486,6 +480,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
+        <family val="2"/>
       </rPr>
       <t>MySql</t>
     </r>
@@ -514,25 +509,153 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">-- {generatorCopyright}
--- auto generated by {generatorName} {generatorVersion}
--- {generationDate}
--- {generatorWebsite}
---
--- input file version: {version}
+    <t>me@yanglb.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/excel-code-generator/code-generator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>generatorRepository</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成器仓库地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copyright 2015-2020 yanglb.com All Rights Reserved.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">// {generatorCopyright}
+// Auto generated by {generatorName} {generatorVersion}
+// {generationDate}
+// {generatorRepository}
+using System;
+using System.Collections.Generic;
+using System.Linq;
+using System.Text;
+using System.Threading.Tasks;
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>me@yanglb.com</t>
+    <t xml:space="preserve">-- ${generatorCopyright}
+-- Auto generated by ${generatorName} v${generatorVersion}
+-- ${generationDate}
+-- ${generatorRepository}
+--
+-- input file version: ${version}
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Copyright 2015-2019 yanglb.com All Rights Reserved.</t>
+    <t xml:space="preserve">&lt;!--
+    ${generatorCopyright}
+    Auto generated by ${generatorName} ${generatorVersion}
+    ${generationDate}
+    ${generatorRepository}
+--&gt;
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>schema</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;xsd:schema id="root" xmlns="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:msdata="urn:schemas-microsoft-com:xml-msdata"&gt;
+        &lt;xsd:import namespace="http://www.w3.org/XML/1998/namespace" /&gt;
+        &lt;xsd:element name="root" msdata:IsDataSet="true"&gt;
+            &lt;xsd:complexType&gt;
+                &lt;xsd:choice maxOccurs="unbounded"&gt;
+                &lt;xsd:element name="metadata"&gt;
+                    &lt;xsd:complexType&gt;
+                    &lt;xsd:sequence&gt;
+                        &lt;xsd:element name="value" type="xsd:string" minOccurs="0" /&gt;
+                    &lt;/xsd:sequence&gt;
+                    &lt;xsd:attribute name="name" use="required" type="xsd:string" /&gt;
+                    &lt;xsd:attribute name="type" type="xsd:string" /&gt;
+                    &lt;xsd:attribute name="mimetype" type="xsd:string" /&gt;
+                    &lt;xsd:attribute ref="xml:space" /&gt;
+                    &lt;/xsd:complexType&gt;
+                &lt;/xsd:element&gt;
+                &lt;xsd:element name="assembly"&gt;
+                    &lt;xsd:complexType&gt;
+                    &lt;xsd:attribute name="alias" type="xsd:string" /&gt;
+                    &lt;xsd:attribute name="name" type="xsd:string" /&gt;
+                    &lt;/xsd:complexType&gt;
+                &lt;/xsd:element&gt;
+                &lt;xsd:element name="data"&gt;
+                    &lt;xsd:complexType&gt;
+                    &lt;xsd:sequence&gt;
+                        &lt;xsd:element name="value" type="xsd:string" minOccurs="0" msdata:Ordinal="1" /&gt;
+                        &lt;xsd:element name="comment" type="xsd:string" minOccurs="0" msdata:Ordinal="2" /&gt;
+                    &lt;/xsd:sequence&gt;
+                    &lt;xsd:attribute name="name" type="xsd:string" use="required" msdata:Ordinal="1" /&gt;
+                    &lt;xsd:attribute name="type" type="xsd:string" msdata:Ordinal="3" /&gt;
+                    &lt;xsd:attribute name="mimetype" type="xsd:string" msdata:Ordinal="4" /&gt;
+                    &lt;xsd:attribute ref="xml:space" /&gt;
+                    &lt;/xsd:complexType&gt;
+                &lt;/xsd:element&gt;
+                &lt;xsd:element name="resheader"&gt;
+                    &lt;xsd:complexType&gt;
+                    &lt;xsd:sequence&gt;
+                        &lt;xsd:element name="value" type="xsd:string" minOccurs="0" msdata:Ordinal="1" /&gt;
+                    &lt;/xsd:sequence&gt;
+                    &lt;xsd:attribute name="name" type="xsd:string" use="required" /&gt;
+                    &lt;/xsd:complexType&gt;
+                &lt;/xsd:element&gt;
+                &lt;/xsd:choice&gt;
+            &lt;/xsd:complexType&gt;
+        &lt;/xsd:element&gt;
+    &lt;/xsd:schema&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resheader</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>text/microsoft-resx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Resources.ResXResourceReader, System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Resources.ResXResourceWriter, System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resheaderVersion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resheaderReader</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resheaderWriter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resheaderResmimetype</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cshart Resx生成模板</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -553,12 +676,14 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -585,6 +710,7 @@
       <sz val="18"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -597,6 +723,7 @@
       <sz val="18"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -624,6 +751,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -636,10 +764,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-      <scheme val="major"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -737,7 +864,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -804,10 +931,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -833,6 +960,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2302,7 +2438,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="10">
         <v>41013</v>
@@ -2314,7 +2450,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.5" customHeight="1">
@@ -2323,7 +2459,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="10">
         <v>41016</v>
@@ -2335,7 +2471,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.5" customHeight="1">
@@ -2344,7 +2480,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="10">
         <v>41391</v>
@@ -2356,7 +2492,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.5" customHeight="1">
@@ -2522,7 +2658,7 @@
   </sheetPr>
   <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
@@ -2569,7 +2705,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>13</v>
@@ -2582,8 +2718,8 @@
       <c r="C5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>85</v>
+      <c r="D5" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>17</v>
@@ -2596,8 +2732,8 @@
       <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>86</v>
+      <c r="D6" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>20</v>
@@ -2611,7 +2747,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>22</v>
@@ -2625,17 +2761,25 @@
         <v>63</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B9" s="8"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="2:5" ht="20.5" customHeight="1">
       <c r="B10" s="8"/>
@@ -2667,8 +2811,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{72970293-DB09-B044-A482-20E018EA8D28}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{72970293-DB09-B044-A482-20E018EA8D28}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{76193158-4AAB-7640-9E1B-3A6FADC164E0}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -2730,10 +2875,10 @@
         <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>25</v>
@@ -2873,12 +3018,12 @@
       </c>
       <c r="D4" s="17" t="str">
         <f>ddl!D4</f>
-        <v xml:space="preserve">-- {generatorCopyright}
--- auto generated by {generatorName} {generatorVersion}
--- {generationDate}
--- {generatorWebsite}
+        <v xml:space="preserve">-- ${generatorCopyright}
+-- Auto generated by ${generatorName} v${generatorVersion}
+-- ${generationDate}
+-- ${generatorRepository}
 --
--- input file version: {version}
+-- input file version: ${version}
 </v>
       </c>
       <c r="E4" s="9" t="s">
@@ -2962,7 +3107,7 @@
     <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1"/>
@@ -3007,7 +3152,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>25</v>
@@ -7509,4 +7654,133 @@
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDF6D6C-5BAD-2543-934F-C1DD58EA4099}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IV9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
+    <col min="6" max="256" width="12.25" style="1" customWidth="1"/>
+    <col min="257" max="16384" width="12.25" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
+    <row r="2" spans="2:5" ht="23">
+      <c r="B2" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="2:5" ht="18.25" customHeight="1">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="112">
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="94" customHeight="1">
+      <c r="B5" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B7" s="34"/>
+      <c r="C7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:5" ht="28">
+      <c r="B8" s="34"/>
+      <c r="C8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:5" ht="28">
+      <c r="B9" s="34"/>
+      <c r="C9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/conf/CodeGenerator.xlsx
+++ b/src/conf/CodeGenerator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/src/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6BCB93-6BB5-B548-956D-282AC1585D07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0618B5-7F5D-E14E-B8A0-DB2AAC8D186A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#修订履历" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
   <si>
     <t>修订履历</t>
   </si>
@@ -574,6 +574,42 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>resheader</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>text/microsoft-resx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Resources.ResXResourceReader, System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Resources.ResXResourceWriter, System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resheaderVersion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resheaderReader</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resheaderWriter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resheaderResmimetype</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cshart Resx生成模板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">    &lt;xsd:schema id="root" xmlns="" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:msdata="urn:schemas-microsoft-com:xml-msdata"&gt;
         &lt;xsd:import namespace="http://www.w3.org/XML/1998/namespace" /&gt;
         &lt;xsd:element name="root" msdata:IsDataSet="true"&gt;
@@ -619,43 +655,24 @@
                 &lt;/xsd:choice&gt;
             &lt;/xsd:complexType&gt;
         &lt;/xsd:element&gt;
-    &lt;/xsd:schema&gt;</t>
+    &lt;/xsd:schema&gt;
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>resheader</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>text/microsoft-resx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.Resources.ResXResourceReader, System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>System.Resources.ResXResourceWriter, System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>resheaderVersion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>resheaderReader</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>resheaderWriter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>resheaderResmimetype</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cshart Resx生成模板</t>
+    <t xml:space="preserve">    &lt;resheader name="resmimetype"&gt;
+        &lt;value&gt;${resheaderResmimetype}&lt;/value&gt;
+    &lt;/resheader&gt;
+    &lt;resheader name="version"&gt;
+        &lt;value&gt;${resheaderVersion}&lt;/value&gt;
+    &lt;/resheader&gt;
+    &lt;resheader name="reader"&gt;
+        &lt;value&gt;${resheaderReader}&lt;/value&gt;
+    &lt;/resheader&gt;
+    &lt;resheader name="writer"&gt;
+        &lt;value&gt;${resheaderWriter}&lt;/value&gt;
+    &lt;/resheader&gt;
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +812,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -855,6 +872,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -864,7 +896,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -961,14 +993,35 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3104,7 +3157,7 @@
   </sheetPr>
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
@@ -7661,9 +7714,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV9"/>
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
@@ -7682,99 +7735,109 @@
   <sheetData>
     <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="2:5" ht="18.25" customHeight="1">
+      <c r="B3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="112">
+      <c r="B4" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="94" customHeight="1">
+      <c r="B5" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="2:5" ht="18.25" customHeight="1">
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="112">
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="94" customHeight="1">
-      <c r="B5" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="39"/>
+    </row>
+    <row r="6" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B6" s="38"/>
+      <c r="C6" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B6" s="33" t="s">
+      <c r="D6" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B7" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B8" s="40"/>
+      <c r="C8" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="2:5" ht="28">
+      <c r="B9" s="40"/>
+      <c r="C9" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B7" s="34"/>
-      <c r="C7" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="2:5" ht="28">
-      <c r="B8" s="34"/>
-      <c r="C8" s="9" t="s">
+      <c r="E9" s="36"/>
+    </row>
+    <row r="10" spans="2:5" ht="28">
+      <c r="B10" s="40"/>
+      <c r="C10" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D10" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="2:5" ht="28">
-      <c r="B9" s="34"/>
-      <c r="C9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="9"/>
+      <c r="E10" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/conf/CodeGenerator.xlsx
+++ b/src/conf/CodeGenerator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/src/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0618B5-7F5D-E14E-B8A0-DB2AAC8D186A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1BB996-B0B4-8A4E-B5BD-00E24DDD8CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#修订履历" sheetId="1" r:id="rId1"/>
@@ -560,16 +560,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;!--
-    ${generatorCopyright}
-    Auto generated by ${generatorName} ${generatorVersion}
-    ${generationDate}
-    ${generatorRepository}
---&gt;
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>schema</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -672,6 +662,16 @@
     &lt;resheader name="writer"&gt;
         &lt;value&gt;${resheaderWriter}&lt;/value&gt;
     &lt;/resheader&gt;
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;!--
+    ${generatorCopyright}
+    Auto generated by ${generatorName} ${generatorVersion}
+    ${generationDate}
+    ${generatorRepository}
+--&gt;
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3157,7 +3157,7 @@
   </sheetPr>
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
@@ -7716,7 +7716,7 @@
   </sheetPr>
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
@@ -7736,7 +7736,7 @@
     <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
       <c r="B2" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -7756,7 +7756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="112">
+    <row r="4" spans="2:5" ht="98">
       <c r="B4" s="35" t="s">
         <v>23</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>25</v>
@@ -7772,42 +7772,42 @@
     </row>
     <row r="5" spans="2:5" ht="94" customHeight="1">
       <c r="B5" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="20.5" customHeight="1">
       <c r="B6" s="38"/>
       <c r="C6" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="36"/>
     </row>
     <row r="7" spans="2:5" ht="20.5" customHeight="1">
       <c r="B7" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>93</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>94</v>
       </c>
       <c r="E7" s="36"/>
     </row>
     <row r="8" spans="2:5" ht="20.5" customHeight="1">
       <c r="B8" s="40"/>
       <c r="C8" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>77</v>
@@ -7817,20 +7817,20 @@
     <row r="9" spans="2:5" ht="28">
       <c r="B9" s="40"/>
       <c r="C9" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="36"/>
     </row>
     <row r="10" spans="2:5" ht="28">
       <c r="B10" s="40"/>
       <c r="C10" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="36"/>
     </row>

--- a/src/conf/CodeGenerator.xlsx
+++ b/src/conf/CodeGenerator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/src/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1BB996-B0B4-8A4E-B5BD-00E24DDD8CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D6A5D6-B904-0844-BD38-C391D432F435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#修订履历" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="dml" sheetId="4" r:id="rId4"/>
     <sheet name="csharp" sheetId="5" r:id="rId5"/>
     <sheet name="msg_cs" sheetId="6" r:id="rId6"/>
+    <sheet name="msg_ios" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
   <si>
     <t>修订履历</t>
   </si>
@@ -675,6 +676,41 @@
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">IOS Strings </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成模板</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/**
+ * ${generatorCopyright}
+ * Auto generated by ${generatorName} ${generatorVersion}
+ * ${generationDate}
+ * ${generatorRepository}
+ *
+ */
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -683,7 +719,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -784,6 +820,28 @@
       <color rgb="FF000000"/>
       <name val="SimSun"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -896,7 +954,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -969,6 +1027,30 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -999,29 +1081,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2372,14 +2436,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="20.75" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -2729,12 +2793,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="18.25" customHeight="1">
       <c r="B3" s="7" t="s">
@@ -2902,12 +2966,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="31.5" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="18.25" customHeight="1">
       <c r="B3" s="7" t="s">
@@ -3041,12 +3105,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="2:5" ht="18.25" customHeight="1">
       <c r="B3" s="7" t="s">
@@ -3176,12 +3240,12 @@
   <sheetData>
     <row r="1" spans="1:256" ht="40.5" hidden="1" customHeight="1"/>
     <row r="2" spans="1:256" ht="23">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:256" ht="18.25" customHeight="1">
       <c r="B3" s="13" t="s">
@@ -3226,7 +3290,7 @@
       </c>
     </row>
     <row r="6" spans="1:256" ht="20.5" customHeight="1">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="37" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3241,7 +3305,7 @@
     </row>
     <row r="7" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="30"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
@@ -3505,7 +3569,7 @@
     </row>
     <row r="8" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="30"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="9" t="s">
         <v>39</v>
       </c>
@@ -3767,7 +3831,7 @@
     </row>
     <row r="9" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="30"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="9" t="s">
         <v>52</v>
       </c>
@@ -4029,7 +4093,7 @@
     </row>
     <row r="10" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="30"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="9" t="s">
         <v>41</v>
       </c>
@@ -4291,7 +4355,7 @@
     </row>
     <row r="11" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="30"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="9" t="s">
         <v>53</v>
       </c>
@@ -4553,7 +4617,7 @@
     </row>
     <row r="12" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="30"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="9" t="s">
         <v>42</v>
       </c>
@@ -4815,7 +4879,7 @@
     </row>
     <row r="13" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="30"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="9" t="s">
         <v>54</v>
       </c>
@@ -5077,7 +5141,7 @@
     </row>
     <row r="14" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="30"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="9" t="s">
         <v>44</v>
       </c>
@@ -5339,7 +5403,7 @@
     </row>
     <row r="15" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="30"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="9" t="s">
         <v>55</v>
       </c>
@@ -5601,7 +5665,7 @@
     </row>
     <row r="16" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="9" t="s">
         <v>36</v>
       </c>
@@ -5863,7 +5927,7 @@
     </row>
     <row r="17" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="30"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="9" t="s">
         <v>35</v>
       </c>
@@ -6125,7 +6189,7 @@
     </row>
     <row r="18" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="30"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="9" t="s">
         <v>47</v>
       </c>
@@ -6387,7 +6451,7 @@
     </row>
     <row r="19" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="30"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="9" t="s">
         <v>56</v>
       </c>
@@ -6649,7 +6713,7 @@
     </row>
     <row r="20" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="9" t="s">
         <v>48</v>
       </c>
@@ -6911,7 +6975,7 @@
     </row>
     <row r="21" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="30"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="9" t="s">
         <v>57</v>
       </c>
@@ -7173,7 +7237,7 @@
     </row>
     <row r="22" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="30"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="9" t="s">
         <v>50</v>
       </c>
@@ -7435,7 +7499,7 @@
     </row>
     <row r="23" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="31"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="9" t="s">
         <v>58</v>
       </c>
@@ -7716,6 +7780,145 @@
   </sheetPr>
   <dimension ref="A1:IV10"/>
   <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
+    <col min="6" max="256" width="12.25" style="1" customWidth="1"/>
+    <col min="257" max="16384" width="12.25" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
+    <row r="2" spans="2:5" ht="23">
+      <c r="B2" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="2:5" ht="18.25" customHeight="1">
+      <c r="B3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="98">
+      <c r="B4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="94" customHeight="1">
+      <c r="B5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B6" s="28"/>
+      <c r="C6" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B7" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B8" s="42"/>
+      <c r="C8" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="2:5" ht="28">
+      <c r="B9" s="42"/>
+      <c r="C9" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="2:5" ht="28">
+      <c r="B10" s="42"/>
+      <c r="C10" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B7:B10"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6359A699-05BB-CB4E-9782-33B8700D1F5D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IV6"/>
+  <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
@@ -7735,109 +7938,56 @@
   <sheetData>
     <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="2:5" ht="18.25" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="98">
-      <c r="B4" s="35" t="s">
+    <row r="4" spans="2:5" ht="126">
+      <c r="B4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="94" customHeight="1">
-      <c r="B5" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="39"/>
+    <row r="5" spans="2:5" ht="16">
+      <c r="B5" s="30"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B6" s="38"/>
-      <c r="C6" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B7" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B8" s="40"/>
-      <c r="C8" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" spans="2:5" ht="28">
-      <c r="B9" s="40"/>
-      <c r="C9" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="36"/>
-    </row>
-    <row r="10" spans="2:5" ht="28">
-      <c r="B10" s="40"/>
-      <c r="C10" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="36"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/conf/CodeGenerator.xlsx
+++ b/src/conf/CodeGenerator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/src/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D6A5D6-B904-0844-BD38-C391D432F435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9F02CC-412C-644E-B00E-2B1B51D2F2A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#修订履历" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="csharp" sheetId="5" r:id="rId5"/>
     <sheet name="msg_cs" sheetId="6" r:id="rId6"/>
     <sheet name="msg_ios" sheetId="7" r:id="rId7"/>
+    <sheet name="msg_android" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
   <si>
     <t>修订履历</t>
   </si>
@@ -709,6 +710,30 @@
  *
  */
 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Android 资源</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成模板</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -954,7 +979,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1050,6 +1075,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2436,14 +2464,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="20.75" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -2793,12 +2821,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="18.25" customHeight="1">
       <c r="B3" s="7" t="s">
@@ -2966,12 +2994,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="31.5" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="18.25" customHeight="1">
       <c r="B3" s="7" t="s">
@@ -3105,12 +3133,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="2:5" ht="18.25" customHeight="1">
       <c r="B3" s="7" t="s">
@@ -3240,12 +3268,12 @@
   <sheetData>
     <row r="1" spans="1:256" ht="40.5" hidden="1" customHeight="1"/>
     <row r="2" spans="1:256" ht="23">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:256" ht="18.25" customHeight="1">
       <c r="B3" s="13" t="s">
@@ -3290,7 +3318,7 @@
       </c>
     </row>
     <row r="6" spans="1:256" ht="20.5" customHeight="1">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>65</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -3305,7 +3333,7 @@
     </row>
     <row r="7" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="38"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
@@ -3569,7 +3597,7 @@
     </row>
     <row r="8" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="38"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="9" t="s">
         <v>39</v>
       </c>
@@ -3831,7 +3859,7 @@
     </row>
     <row r="9" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="38"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="9" t="s">
         <v>52</v>
       </c>
@@ -4093,7 +4121,7 @@
     </row>
     <row r="10" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="38"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="9" t="s">
         <v>41</v>
       </c>
@@ -4355,7 +4383,7 @@
     </row>
     <row r="11" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="38"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="9" t="s">
         <v>53</v>
       </c>
@@ -4617,7 +4645,7 @@
     </row>
     <row r="12" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="38"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="9" t="s">
         <v>42</v>
       </c>
@@ -4879,7 +4907,7 @@
     </row>
     <row r="13" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="38"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="9" t="s">
         <v>54</v>
       </c>
@@ -5141,7 +5169,7 @@
     </row>
     <row r="14" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="9" t="s">
         <v>44</v>
       </c>
@@ -5403,7 +5431,7 @@
     </row>
     <row r="15" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="38"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="9" t="s">
         <v>55</v>
       </c>
@@ -5665,7 +5693,7 @@
     </row>
     <row r="16" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="38"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="9" t="s">
         <v>36</v>
       </c>
@@ -5927,7 +5955,7 @@
     </row>
     <row r="17" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="38"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="9" t="s">
         <v>35</v>
       </c>
@@ -6189,7 +6217,7 @@
     </row>
     <row r="18" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="38"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="9" t="s">
         <v>47</v>
       </c>
@@ -6451,7 +6479,7 @@
     </row>
     <row r="19" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="38"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="9" t="s">
         <v>56</v>
       </c>
@@ -6713,7 +6741,7 @@
     </row>
     <row r="20" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="38"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="9" t="s">
         <v>48</v>
       </c>
@@ -6975,7 +7003,7 @@
     </row>
     <row r="21" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="38"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="9" t="s">
         <v>57</v>
       </c>
@@ -7237,7 +7265,7 @@
     </row>
     <row r="22" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="38"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="9" t="s">
         <v>50</v>
       </c>
@@ -7499,7 +7527,7 @@
     </row>
     <row r="23" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="39"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="9" t="s">
         <v>58</v>
       </c>
@@ -7799,12 +7827,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="2:5" ht="18.25" customHeight="1">
       <c r="B3" s="24" t="s">
@@ -7857,7 +7885,7 @@
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>92</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -7869,7 +7897,7 @@
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B8" s="42"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="26" t="s">
         <v>96</v>
       </c>
@@ -7879,7 +7907,7 @@
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="2:5" ht="28">
-      <c r="B9" s="42"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="26" t="s">
         <v>97</v>
       </c>
@@ -7889,7 +7917,7 @@
       <c r="E9" s="26"/>
     </row>
     <row r="10" spans="2:5" ht="28">
-      <c r="B10" s="42"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="26" t="s">
         <v>98</v>
       </c>
@@ -7914,6 +7942,92 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6359A699-05BB-CB4E-9782-33B8700D1F5D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IV6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
+    <col min="6" max="256" width="12.25" style="1" customWidth="1"/>
+    <col min="257" max="16384" width="12.25" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
+    <row r="2" spans="2:5" ht="23">
+      <c r="B2" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+    </row>
+    <row r="3" spans="2:5" ht="18.25" customHeight="1">
+      <c r="B3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="126">
+      <c r="B4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="16">
+      <c r="B5" s="30"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B6" s="30"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81F9E1D-9855-264C-A8A2-81251242B40D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7938,12 +8052,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="2:5" ht="18.25" customHeight="1">
       <c r="B3" s="24" t="s">
@@ -7959,7 +8073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="126">
+    <row r="4" spans="2:5" ht="98">
       <c r="B4" s="25" t="s">
         <v>23</v>
       </c>
@@ -7967,20 +8081,20 @@
         <v>24</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="16">
-      <c r="B5" s="30"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B6" s="30"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="26"/>
       <c r="D6" s="27"/>
       <c r="E6" s="26"/>

--- a/src/conf/CodeGenerator.xlsx
+++ b/src/conf/CodeGenerator.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanglibing/Work/cg/code-generator/src/conf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9F02CC-412C-644E-B00E-2B1B51D2F2A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC4C11A-CBC1-324A-AFD3-5266AEFFB112}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#修订履历" sheetId="1" r:id="rId1"/>
-    <sheet name="common" sheetId="2" r:id="rId2"/>
-    <sheet name="ddl" sheetId="3" r:id="rId3"/>
-    <sheet name="dml" sheetId="4" r:id="rId4"/>
-    <sheet name="csharp" sheetId="5" r:id="rId5"/>
-    <sheet name="msg_cs" sheetId="6" r:id="rId6"/>
-    <sheet name="msg_ios" sheetId="7" r:id="rId7"/>
-    <sheet name="msg_android" sheetId="8" r:id="rId8"/>
+    <sheet name="ddl" sheetId="3" r:id="rId2"/>
+    <sheet name="dml" sheetId="4" r:id="rId3"/>
+    <sheet name="csharp" sheetId="5" r:id="rId4"/>
+    <sheet name="msg_cs" sheetId="6" r:id="rId5"/>
+    <sheet name="msg_ios" sheetId="7" r:id="rId6"/>
+    <sheet name="msg_android" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
   <si>
     <t>修订履历</t>
   </si>
@@ -66,9 +65,6 @@
     <t>初版作成</t>
   </si>
   <si>
-    <t>共通设置项目</t>
-  </si>
-  <si>
     <t>项目</t>
   </si>
   <si>
@@ -76,36 +72,6 @@
   </si>
   <si>
     <t>值</t>
-  </si>
-  <si>
-    <t>生成器名字</t>
-  </si>
-  <si>
-    <t>generatorName</t>
-  </si>
-  <si>
-    <t>版权说明</t>
-  </si>
-  <si>
-    <t>generatorCopyright</t>
-  </si>
-  <si>
-    <t>所生成代码中的版权说明</t>
-  </si>
-  <si>
-    <t>版本</t>
-  </si>
-  <si>
-    <t>generatorVersion</t>
-  </si>
-  <si>
-    <t>生成器版本</t>
-  </si>
-  <si>
-    <t>generatorAuthor</t>
-  </si>
-  <si>
-    <t>生成器作者</t>
   </si>
   <si>
     <t>文件头</t>
@@ -285,18 +251,6 @@
       </rPr>
       <t>代码生成器配置</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>generatorWebsite</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>网站</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -499,66 +453,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>https://yanglb.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code Generator</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>head</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>me@yanglb.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/excel-code-generator/code-generator</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>generatorRepository</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成器仓库地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copyright 2015-2020 yanglb.com All Rights Reserved.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">// {generatorCopyright}
-// Auto generated by {generatorName} {generatorVersion}
-// {generationDate}
-// {generatorRepository}
-using System;
-using System.Collections.Generic;
-using System.Linq;
-using System.Text;
-using System.Threading.Tasks;
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">-- ${generatorCopyright}
--- Auto generated by ${generatorName} v${generatorVersion}
--- ${generationDate}
--- ${generatorRepository}
---
--- input file version: ${version}
-</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -668,16 +563,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;!--
-    ${generatorCopyright}
-    Auto generated by ${generatorName} ${generatorVersion}
-    ${generationDate}
-    ${generatorRepository}
---&gt;
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -702,17 +587,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">/**
- * ${generatorCopyright}
- * Auto generated by ${generatorName} ${generatorVersion}
- * ${generationDate}
- * ${generatorRepository}
- *
- */
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -736,6 +610,46 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">&lt;!--
+    ${generatorCopyright}
+    Auto generated by ${generatorName} ${generatorVersion}
+    ${generatorRepository}
+--&gt;
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/**
+ * ${generatorCopyright}
+ * Auto generated by ${generatorName} ${generatorVersion}
+ * 
+ * ${generatorRepository}
+ *
+ */
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">// {generatorCopyright}
+// Auto generated by {generatorName} {generatorVersion}
+// {generatorRepository}
+using System;
+using System.Collections.Generic;
+using System.Linq;
+using System.Text;
+using System.Threading.Tasks;
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-- ${generatorCopyright}
+-- Auto generated by ${generatorName} v${generatorVersion}
+-- ${generatorRepository}
+--
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -744,7 +658,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -817,34 +731,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -971,15 +857,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1034,23 +917,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1112,13 +980,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -2464,14 +2331,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" ht="20.75" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -2498,7 +2365,7 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="18">
         <v>0.1</v>
       </c>
       <c r="C3" s="6">
@@ -2519,7 +2386,7 @@
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <v>0.2</v>
       </c>
       <c r="C4" s="10">
@@ -2532,7 +2399,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.5" customHeight="1">
@@ -2540,7 +2407,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <v>0.3</v>
       </c>
       <c r="C5" s="10">
@@ -2553,7 +2420,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.5" customHeight="1">
@@ -2561,7 +2428,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <v>0.4</v>
       </c>
       <c r="C6" s="10">
@@ -2574,7 +2441,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.5" customHeight="1">
@@ -2582,8 +2449,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>73</v>
+      <c r="B7" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="C7" s="10">
         <v>41013</v>
@@ -2595,7 +2462,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.5" customHeight="1">
@@ -2603,8 +2470,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>75</v>
+      <c r="B8" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="10">
         <v>41016</v>
@@ -2616,7 +2483,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.5" customHeight="1">
@@ -2624,8 +2491,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>77</v>
+      <c r="B9" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="C9" s="10">
         <v>41391</v>
@@ -2637,7 +2504,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.5" customHeight="1">
@@ -2645,7 +2512,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2656,7 +2523,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -2667,7 +2534,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2678,7 +2545,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2689,7 +2556,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -2700,7 +2567,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -2711,7 +2578,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2722,7 +2589,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2733,7 +2600,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -2744,7 +2611,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2755,7 +2622,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2766,7 +2633,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2777,7 +2644,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2797,185 +2664,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IV13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="2.5" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
-    <col min="6" max="256" width="12.25" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="12.25" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="17.25" hidden="1" customHeight="1"/>
-    <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="2:5" ht="18.25" customHeight="1">
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="20.75" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B8" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B9" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B10" s="8"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B11" s="8"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B12" s="8"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B13" s="8"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{72970293-DB09-B044-A482-20E018EA8D28}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{76193158-4AAB-7640-9E1B-3A6FADC164E0}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
@@ -2994,22 +2689,22 @@
   <sheetData>
     <row r="1" spans="2:5" ht="31.5" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="2:5" ht="18.25" customHeight="1">
       <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>6</v>
@@ -3017,40 +2712,172 @@
     </row>
     <row r="4" spans="2:5" ht="128.75" customHeight="1">
       <c r="B4" s="8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20.5" customHeight="1">
       <c r="B5" s="16" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="2:5" ht="20.5" customHeight="1">
       <c r="B6" s="8" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IV13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
+    <col min="6" max="256" width="12.25" style="1" customWidth="1"/>
+    <col min="257" max="16384" width="12.25" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
+    <row r="2" spans="2:5" ht="23">
+      <c r="B2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="2:5" ht="18.25" customHeight="1">
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="128.75" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="17" t="str">
+        <f>ddl!D4</f>
+        <v xml:space="preserve">-- ${generatorCopyright}
+-- Auto generated by ${generatorName} v${generatorVersion}
+-- ${generatorRepository}
+--
+</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="2:5" ht="20.5" customHeight="1">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="2:5" ht="20.5" customHeight="1">
@@ -3109,140 +2936,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IV13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.375" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
-    <col min="6" max="256" width="12.25" style="1" customWidth="1"/>
-    <col min="257" max="16384" width="12.25" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
-    <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="2:5" ht="18.25" customHeight="1">
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="128.75" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="17" t="str">
-        <f>ddl!D4</f>
-        <v xml:space="preserve">-- ${generatorCopyright}
--- Auto generated by ${generatorName} v${generatorVersion}
--- ${generationDate}
--- ${generatorRepository}
---
--- input file version: ${version}
-</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3268,80 +2961,80 @@
   <sheetData>
     <row r="1" spans="1:256" ht="40.5" hidden="1" customHeight="1"/>
     <row r="2" spans="1:256" ht="23">
-      <c r="B2" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="B2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:256" ht="18.25" customHeight="1">
       <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:256" ht="168">
+    <row r="4" spans="1:256" ht="154">
       <c r="B4" s="8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:256" ht="20.5" customHeight="1">
       <c r="B5" s="16" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:256" ht="20.5" customHeight="1">
-      <c r="B6" s="38" t="s">
-        <v>65</v>
+      <c r="B6" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="39"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D7" s="9" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3597,12 +3290,12 @@
     </row>
     <row r="8" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="39"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="1"/>
@@ -3859,9 +3552,9 @@
     </row>
     <row r="9" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="39"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D9" s="9" t="b">
         <v>1</v>
@@ -4121,12 +3814,12 @@
     </row>
     <row r="10" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="1"/>
@@ -4383,9 +4076,9 @@
     </row>
     <row r="11" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="39"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D11" s="9" t="b">
         <v>1</v>
@@ -4645,12 +4338,12 @@
     </row>
     <row r="12" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="39"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="9" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="1"/>
@@ -4907,9 +4600,9 @@
     </row>
     <row r="13" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="39"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D13" s="9" t="b">
         <v>0</v>
@@ -5169,12 +4862,12 @@
     </row>
     <row r="14" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="39"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="9" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="1"/>
@@ -5431,9 +5124,9 @@
     </row>
     <row r="15" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="39"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D15" s="9" t="b">
         <v>0</v>
@@ -5693,12 +5386,12 @@
     </row>
     <row r="16" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="39"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="1"/>
@@ -5955,9 +5648,9 @@
     </row>
     <row r="17" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="39"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D17" s="9" t="b">
         <v>0</v>
@@ -6217,12 +5910,12 @@
     </row>
     <row r="18" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="39"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="1"/>
@@ -6479,9 +6172,9 @@
     </row>
     <row r="19" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="39"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="9" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D19" s="9" t="b">
         <v>0</v>
@@ -6741,12 +6434,12 @@
     </row>
     <row r="20" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="1"/>
@@ -7003,9 +6696,9 @@
     </row>
     <row r="21" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="39"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D21" s="9" t="b">
         <v>0</v>
@@ -7265,12 +6958,12 @@
     </row>
     <row r="22" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="39"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="1"/>
@@ -7527,9 +7220,9 @@
     </row>
     <row r="23" spans="1:256" s="14" customFormat="1" ht="20.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="40"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D23" s="9" t="b">
         <v>0</v>
@@ -7801,7 +7494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDF6D6C-5BAD-2543-934F-C1DD58EA4099}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7827,104 +7520,104 @@
   <sheetData>
     <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="B2" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="18.25" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="98">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="98">
-      <c r="B4" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>25</v>
+      <c r="C4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="94" customHeight="1">
-      <c r="B5" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="29"/>
+      <c r="B5" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B6" s="28"/>
-      <c r="C6" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="26"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B7" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="26"/>
+      <c r="B7" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B8" s="43"/>
-      <c r="C8" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="26"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="2:5" ht="28">
-      <c r="B9" s="43"/>
-      <c r="C9" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="26"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="2:5" ht="28">
-      <c r="B10" s="43"/>
-      <c r="C10" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="26"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7940,7 +7633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6359A699-05BB-CB4E-9782-33B8700D1F5D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7950,7 +7643,7 @@
     <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1"/>
@@ -7966,52 +7659,52 @@
   <sheetData>
     <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="B2" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="18.25" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="126">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="126">
-      <c r="B4" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>25</v>
+      <c r="C4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="16">
-      <c r="B5" s="30"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B6" s="30"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="26"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8026,17 +7719,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81F9E1D-9855-264C-A8A2-81251242B40D}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:E2"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1"/>
@@ -8052,52 +7745,52 @@
   <sheetData>
     <row r="1" spans="2:5" ht="40.5" hidden="1" customHeight="1"/>
     <row r="2" spans="2:5" ht="23">
-      <c r="B2" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="B2" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:5" ht="18.25" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="98">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="98">
-      <c r="B4" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>25</v>
+      <c r="C4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="16">
-      <c r="B5" s="32"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="2:5" ht="20.5" customHeight="1">
-      <c r="B6" s="32"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
